--- a/CFRP2本_lap=10/thickness_l10_g2.0.xlsx
+++ b/CFRP2本_lap=10/thickness_l10_g2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jay0423/Documents/大学関連/M2/ansys/CFRP2本_lap=10/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E361F20-896F-0F47-84CD-B89E6F7366CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB96F4D-BEF0-8B4B-9B9F-147B5BDFDF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29966,8 +29966,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -30445,7 +30445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -30590,7 +30590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E08541F-3AF0-D247-83E2-D3215A7189DE}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
